--- a/data/tests/cluster_54.xlsx
+++ b/data/tests/cluster_54.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,20 +509,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rv2676c</t>
+          <t>Rv2247</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>chdC hemQ Rv2676c</t>
+          <t>accD6 Rv2247 MTCY427.28</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FUNCTION: Involved in coproporphyrin-dependent heme b biosynthesis (PubMed:25646457). Catalyzes the decarboxylation of Fe-coproporphyrin III (coproheme) to heme b (protoheme IX), the last step of the pathway (PubMed:25646457). The reaction occurs in a stepwise manner with a three-propionate intermediate (By similarity). {ECO:0000250|UniProtKB:Q8Y5F1, ECO:0000269|PubMed:25646457}.</t>
+          <t>FUNCTION: Component of a biotin-dependent acyl-CoA carboxylase complex. This subunit transfers the CO2 from carboxybiotin to the CoA ester substrate (PubMed:17114269). When associated with the alpha3 subunit AccA3, is involved in the carboxylation of acetyl-CoA and propionyl-CoA, with a preference for acetyl-CoA (PubMed:17114269). {ECO:0000269|PubMed:17114269}.</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rv2247</t>
+          <t>Rv2921c</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -540,12 +540,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>accD6 Rv2247 MTCY427.28</t>
+          <t>ftsY Rv2921c MTCY338.10c</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FUNCTION: Component of a biotin-dependent acyl-CoA carboxylase complex. This subunit transfers the CO2 from carboxybiotin to the CoA ester substrate (PubMed:17114269). When associated with the alpha3 subunit AccA3, is involved in the carboxylation of acetyl-CoA and propionyl-CoA, with a preference for acetyl-CoA (PubMed:17114269). {ECO:0000269|PubMed:17114269}.</t>
+          <t>FUNCTION: Involved in targeting and insertion of nascent membrane proteins into the cytoplasmic membrane. Acts as a receptor for the complex formed by the signal recognition particle (SRP) and the ribosome-nascent chain (RNC) (By similarity). Most of the substrate proteins are involved in stress regulation, lipid metabolism, intermediary metabolism, and cell wall processes (PubMed:29361248). Shows GTPase activity (PubMed:29361248, PubMed:33412199). Can also hydrolyze ATP, UTP and CTP (PubMed:33412199). {ECO:0000255|HAMAP-Rule:MF_00920, ECO:0000269|PubMed:29361248, ECO:0000269|PubMed:33412199}.</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -555,23 +555,157 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rv2921c</t>
+          <t>Rv2676c</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ftsY Rv2921c MTCY338.10c</t>
+          <t>chdC hemQ Rv2676c</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FUNCTION: Involved in targeting and insertion of nascent membrane proteins into the cytoplasmic membrane. Acts as a receptor for the complex formed by the signal recognition particle (SRP) and the ribosome-nascent chain (RNC) (By similarity). Most of the substrate proteins are involved in stress regulation, lipid metabolism, intermediary metabolism, and cell wall processes (PubMed:29361248). Shows GTPase activity (PubMed:29361248, PubMed:33412199). Can also hydrolyze ATP, UTP and CTP (PubMed:33412199). {ECO:0000255|HAMAP-Rule:MF_00920, ECO:0000269|PubMed:29361248, ECO:0000269|PubMed:33412199}.</t>
+          <t>FUNCTION: Involved in coproporphyrin-dependent heme b biosynthesis (PubMed:25646457). Catalyzes the decarboxylation of Fe-coproporphyrin III (coproheme) to heme b (protoheme IX), the last step of the pathway (PubMed:25646457). The reaction occurs in a stepwise manner with a three-propionate intermediate (By similarity). {ECO:0000250|UniProtKB:Q8Y5F1, ECO:0000269|PubMed:25646457}.</t>
         </is>
       </c>
       <c r="E6" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Rv1689</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>tyrS Rv1689 MTCI125.11</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>FUNCTION: Catalyzes the attachment of tyrosine to tRNA(Tyr) in a two-step reaction: tyrosine is first activated by ATP to form Tyr-AMP and then transferred to the acceptor end of tRNA(Tyr). {ECO:0000255|HAMAP-Rule:MF_02006}.</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rv1547</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>dnaE1 dnaE Rv1547 MTCY48.18c</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>FUNCTION: DNA polymerase III is a complex, multichain enzyme responsible for most of the replicative synthesis in bacteria. This DNA polymerase also exhibits 3' to 5' exonuclease activity. The alpha chain is the DNA polymerase (By similarity). {ECO:0000250}.</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rv0684</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>fusA Rv0684 MTCY210.01 MTV040.12</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FUNCTION: Catalyzes the GTP-dependent ribosomal translocation step during translation elongation. During this step, the ribosome changes from the pre-translocational (PRE) to the post-translocational (POST) state as the newly formed A-site-bound peptidyl-tRNA and P-site-bound deacylated tRNA move to the P and E sites, respectively. Catalyzes the coordinated movement of the two tRNA molecules, the mRNA and conformational changes in the ribosome (By similarity). {ECO:0000250}.</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Rv1990c</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>mbcA Rv1990c MTCY39.29</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>FUNCTION: Antitoxin component of a type II toxin-antitoxin (TA) system (PubMed:30315706, PubMed:30792174). Neutralizes the activity of cognate toxin MbcT by blocking access to the toxin active site (PubMed:30792174). {ECO:0000269|PubMed:30315706, ECO:0000269|PubMed:30792174}.</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rv0718</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>rpsH Rv0718 MTCY210.37</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>FUNCTION: One of the primary rRNA binding proteins, it binds directly to 16S rRNA central domain where it helps coordinate assembly of the platform of the 30S subunit. {ECO:0000255|HAMAP-Rule:MF_01302}.</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Rv0528</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Rv0528</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
         <v>54</v>
       </c>
     </row>
